--- a/utils/cleaners/Greentic/Eliminados_Estudiantes_Desconectadas.xlsx
+++ b/utils/cleaners/Greentic/Eliminados_Estudiantes_Desconectadas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t>N registro</t>
   </si>
@@ -236,111 +236,12 @@
   </si>
   <si>
     <t>Instrumento</t>
-  </si>
-  <si>
-    <t>GT62</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>johan david rincon romero</t>
-  </si>
-  <si>
-    <t>Masculino</t>
-  </si>
-  <si>
-    <t>Urbana</t>
-  </si>
-  <si>
-    <t>Uso propio (solo lo usas tú)</t>
-  </si>
-  <si>
-    <t>Titulo universitario</t>
-  </si>
-  <si>
-    <t>No sé</t>
-  </si>
-  <si>
-    <t>Cuida el hogar</t>
-  </si>
-  <si>
-    <t>Mamá, Hermano/a</t>
-  </si>
-  <si>
-    <t>Décimo</t>
-  </si>
-  <si>
-    <t>Me interesa poco</t>
-  </si>
-  <si>
-    <t>La evitaría</t>
-  </si>
-  <si>
-    <t>Está entre mis preferidas</t>
-  </si>
-  <si>
-    <t>Ciencias naturales</t>
-  </si>
-  <si>
-    <t>Tecnología</t>
-  </si>
-  <si>
-    <t>Matemática</t>
-  </si>
-  <si>
-    <t>Una secuencia lógica de pasos para realizar una tarea</t>
-  </si>
-  <si>
-    <t>Para planificar la solución a un problema</t>
-  </si>
-  <si>
-    <t>Un conjunto de instrucciones que reciben cero, uno o más parámetros y retorna un valor</t>
-  </si>
-  <si>
-    <t>a.</t>
-  </si>
-  <si>
-    <t>c. Nublado</t>
-  </si>
-  <si>
-    <t>c) Julio</t>
-  </si>
-  <si>
-    <t>b.</t>
-  </si>
-  <si>
-    <t>c) Si Óscar empaca Deditos para merendar, puede hacer Arroz de pollo para almorzar</t>
-  </si>
-  <si>
-    <t>e) No sé</t>
-  </si>
-  <si>
-    <t>c) Creo que puede ser un hombre o una mujer</t>
-  </si>
-  <si>
-    <t>b) Quizás un hombre</t>
-  </si>
-  <si>
-    <t>d) Quizás una mujer</t>
-  </si>
-  <si>
-    <t>Totalmente de acuerdo</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Encuesta estudiantes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -393,12 +294,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -693,7 +593,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BV2"/>
+  <dimension ref="A1:BV1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -923,212 +823,6 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:74">
-      <c r="A2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C2">
-        <v>7778</v>
-      </c>
-      <c r="D2">
-        <v>1001</v>
-      </c>
-      <c r="E2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F2" s="2">
-        <v>44728.31826576389</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>28</v>
-      </c>
-      <c r="I2">
-        <v>18</v>
-      </c>
-      <c r="J2" t="s">
-        <v>77</v>
-      </c>
-      <c r="K2" t="s">
-        <v>78</v>
-      </c>
-      <c r="L2" t="s">
-        <v>75</v>
-      </c>
-      <c r="M2" t="s">
-        <v>79</v>
-      </c>
-      <c r="N2" t="s">
-        <v>80</v>
-      </c>
-      <c r="O2" t="s">
-        <v>81</v>
-      </c>
-      <c r="P2" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>81</v>
-      </c>
-      <c r="R2" t="s">
-        <v>83</v>
-      </c>
-      <c r="S2" t="s">
-        <v>84</v>
-      </c>
-      <c r="T2" t="s">
-        <v>85</v>
-      </c>
-      <c r="U2" t="s">
-        <v>86</v>
-      </c>
-      <c r="V2" t="s">
-        <v>85</v>
-      </c>
-      <c r="W2" t="s">
-        <v>85</v>
-      </c>
-      <c r="X2" t="s">
-        <v>87</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>87</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>85</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>88</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>89</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>89</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>90</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AJ2">
-        <v>4</v>
-      </c>
-      <c r="AK2">
-        <v>3</v>
-      </c>
-      <c r="AL2">
-        <v>4</v>
-      </c>
-      <c r="AM2">
-        <v>4</v>
-      </c>
-      <c r="AN2">
-        <v>4</v>
-      </c>
-      <c r="AO2">
-        <v>5</v>
-      </c>
-      <c r="AP2">
-        <v>5</v>
-      </c>
-      <c r="AQ2">
-        <v>4</v>
-      </c>
-      <c r="AR2">
-        <v>4</v>
-      </c>
-      <c r="AS2">
-        <v>4</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>95</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>96</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>97</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>94</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>99</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>100</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>101</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>102</v>
-      </c>
-      <c r="BG2" t="s">
-        <v>100</v>
-      </c>
-      <c r="BH2" t="s">
-        <v>100</v>
-      </c>
-      <c r="BI2" t="s">
-        <v>100</v>
-      </c>
-      <c r="BK2" t="s">
-        <v>103</v>
-      </c>
-      <c r="BL2" t="s">
-        <v>103</v>
-      </c>
-      <c r="BM2" t="s">
-        <v>103</v>
-      </c>
-      <c r="BN2" t="s">
-        <v>103</v>
-      </c>
-      <c r="BO2" t="s">
-        <v>103</v>
-      </c>
-      <c r="BP2" t="s">
-        <v>103</v>
-      </c>
-      <c r="BQ2" t="s">
-        <v>103</v>
-      </c>
-      <c r="BT2" t="s">
-        <v>104</v>
-      </c>
-      <c r="BU2" t="s">
-        <v>104</v>
-      </c>
-      <c r="BV2" t="s">
-        <v>105</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
